--- a/Ind_Customer_Month.xlsx
+++ b/Ind_Customer_Month.xlsx
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.002035394290322581</v>
+        <v>0.002228942677419355</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -514,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.0001967204451612904</v>
+        <v>0.0003902150838709678</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.000100026864516129</v>
+        <v>0.0001000806129032258</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.0006483870967741936</v>
+        <v>0.0008096774193548388</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -594,7 +594,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.00399904146451613</v>
+        <v>0.00422478520967742</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -602,7 +602,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.01412604859677419</v>
+        <v>0.01483559159032258</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -610,7 +610,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.01219732929032258</v>
+        <v>0.01284268771290323</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -618,7 +618,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.006580663125806453</v>
+        <v>0.006741953448387098</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -650,7 +650,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.0003548387096774193</v>
+        <v>0.0003870967741935484</v>
       </c>
     </row>
   </sheetData>

--- a/Ind_Customer_Month.xlsx
+++ b/Ind_Customer_Month.xlsx
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.0005160932000000001</v>
+        <v>0.0007123297580645162</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.0008419713161290323</v>
+        <v>0.001167240132258065</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.002228942677419355</v>
+        <v>0.003180017229032259</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.0001323476451612903</v>
+        <v>0.0003092286483870968</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.0001</v>
+        <v>0.0002446229387096774</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -514,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.0003902150838709678</v>
+        <v>0.0006960477225806452</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.0001000806129032258</v>
+        <v>0.0004382788</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -530,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.0001645430129032258</v>
+        <v>0.0004898691741935483</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -538,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.0004870967741935484</v>
+        <v>0.0008123655903225805</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.0008096774193548388</v>
+        <v>0.0008768817193548389</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -554,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.0006161290322580645</v>
+        <v>0.0006510752677419354</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -562,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.001</v>
+        <v>0.001002688170967742</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -570,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.0003870967741935484</v>
+        <v>0.0006129032258064516</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.0009032258064516129</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -586,7 +586,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.0008709587838709677</v>
+        <v>0.0009354749129032259</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -594,7 +594,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.00422478520967742</v>
+        <v>0.005579426841935485</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -602,7 +602,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.01483559159032258</v>
+        <v>0.01822194470322581</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -610,7 +610,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.01284268771290323</v>
+        <v>0.01468233812903226</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -618,7 +618,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.006741953448387098</v>
+        <v>0.00735485667419355</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -626,7 +626,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.002483978464516129</v>
+        <v>0.002516236529032258</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -634,7 +634,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.0007742383387096774</v>
+        <v>0.0008064964032258064</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -642,7 +642,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.0007096774193548386</v>
+        <v>0.0007741935483870968</v>
       </c>
     </row>
     <row r="26" spans="1:2">
